--- a/results/export_normal.xlsx
+++ b/results/export_normal.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,13 +568,13 @@
         <v>128</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8200934579439252</v>
+        <v>0.8325688073394495</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8162790697674419</v>
+        <v>0.8441860465116279</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.666766415705596</v>
+        <v>0.6534334779927244</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +610,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -625,13 +625,13 @@
         <v>128</v>
       </c>
       <c r="O3" t="n">
-        <v>0.825287356321839</v>
+        <v>0.8395348837209302</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8348837209302326</v>
+        <v>0.8395348837209302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6624057231784356</v>
+        <v>0.6520473486584613</v>
       </c>
     </row>
     <row r="4">
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>58.87978142076503</v>
+        <v>58.96032831737345</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,13 +682,13 @@
         <v>128</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8125</v>
+        <v>0.8349753694581281</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7842227378190255</v>
+        <v>0.7865429234338747</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6791463311904115</v>
+        <v>0.6651293333675891</v>
       </c>
     </row>
     <row r="5">
@@ -702,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>58.87978142076503</v>
+        <v>58.96032831737345</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -724,7 +724,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -739,13 +739,13 @@
         <v>128</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8090692124105012</v>
+        <v>0.8493827160493828</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7865429234338747</v>
+        <v>0.7981438515081206</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6760651387803541</v>
+        <v>0.6586106528824885</v>
       </c>
     </row>
     <row r="6">
@@ -781,7 +781,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -796,13 +796,13 @@
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.801909307875895</v>
+        <v>0.7972350230414746</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7813953488372093</v>
+        <v>0.8046511627906977</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6808683724638213</v>
+        <v>0.6788946776644476</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -853,13 +853,13 @@
         <v>128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7855530474040632</v>
+        <v>0.7944572748267898</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8093023255813954</v>
+        <v>0.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6816390534269173</v>
+        <v>0.6825770944479226</v>
       </c>
     </row>
     <row r="8">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>58.87978142076503</v>
+        <v>58.85558583106268</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -910,13 +910,13 @@
         <v>128</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8068965517241379</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="P8" t="n">
-        <v>0.814385150812065</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6706871944047063</v>
+        <v>0.6714392895594604</v>
       </c>
     </row>
     <row r="9">
@@ -930,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>58.87978142076503</v>
+        <v>58.85558583106268</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -952,7 +952,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -967,13 +967,13 @@
         <v>128</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8070175438596491</v>
+        <v>0.7946428571428571</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8538283062645011</v>
+        <v>0.8240740740740741</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6628807698442636</v>
+        <v>0.6783138520061482</v>
       </c>
     </row>
     <row r="10">
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>58.87978142076503</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1024,13 +1024,13 @@
         <v>128</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8036529680365296</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8167053364269141</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.673521512518815</v>
+        <v>0.6631793552645254</v>
       </c>
     </row>
     <row r="11">
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>58.87978142076503</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1081,13 +1081,13 @@
         <v>128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8164705882352942</v>
+        <v>0.8232558139534883</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8051044083526682</v>
+        <v>0.8232558139534883</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6726982147315812</v>
+        <v>0.6644127666542533</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1138,13 +1138,13 @@
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8098434004474273</v>
+        <v>0.8217592592592593</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8418604651162791</v>
+        <v>0.8255813953488372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6659842532245307</v>
+        <v>0.6624785209974088</v>
       </c>
     </row>
     <row r="13">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1195,13 +1195,13 @@
         <v>128</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8058035714285714</v>
+        <v>0.8244803695150116</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8395348837209302</v>
+        <v>0.8302325581395349</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6665191740898362</v>
+        <v>0.6603074744037988</v>
       </c>
     </row>
     <row r="14">
@@ -1215,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>58.87978142076503</v>
+        <v>58.85558583106268</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1252,13 +1252,13 @@
         <v>128</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8317073170731707</v>
+        <v>0.8089622641509434</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7911832946635731</v>
+        <v>0.7939814814814815</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6651970822303022</v>
+        <v>0.6763445962352389</v>
       </c>
     </row>
     <row r="15">
@@ -1272,7 +1272,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>58.87978142076503</v>
+        <v>58.85558583106268</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1309,13 +1309,13 @@
         <v>128</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8240740740740741</v>
+        <v>0.8256658595641646</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8259860788863109</v>
+        <v>0.7893518518518519</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6613744119477403</v>
+        <v>0.671031585019031</v>
       </c>
     </row>
     <row r="16">
@@ -1329,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>58.79945429740792</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1366,13 +1366,13 @@
         <v>128</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8040540540540541</v>
+        <v>0.7927927927927928</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8283062645011601</v>
+        <v>0.8186046511627907</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.669988911360055</v>
+        <v>0.6759684764246282</v>
       </c>
     </row>
     <row r="17">
@@ -1386,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>58.79945429740792</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>128</v>
       </c>
       <c r="O17" t="n">
-        <v>0.802660753880266</v>
+        <v>0.7870967741935484</v>
       </c>
       <c r="P17" t="n">
-        <v>0.839907192575406</v>
+        <v>0.8511627906976744</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.668283813809633</v>
+        <v>0.6745597848161627</v>
       </c>
     </row>
     <row r="18">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1480,13 +1480,13 @@
         <v>128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8160377358490566</v>
+        <v>0.8192488262910798</v>
       </c>
       <c r="P18" t="n">
-        <v>0.802784222737819</v>
+        <v>0.8097447795823666</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6691126771311943</v>
+        <v>0.6688004552992315</v>
       </c>
     </row>
     <row r="19">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         <v>128</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8225419664268585</v>
+        <v>0.8253588516746412</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7958236658932715</v>
+        <v>0.8004640371229699</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6687623864966012</v>
+        <v>0.6664213775937023</v>
       </c>
     </row>
     <row r="20">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1594,13 +1594,13 @@
         <v>128</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7990867579908676</v>
+        <v>0.8149882903981265</v>
       </c>
       <c r="P20" t="n">
-        <v>0.813953488372093</v>
+        <v>0.8093023255813954</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6772675074943124</v>
+        <v>0.6705695402132321</v>
       </c>
     </row>
     <row r="21">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1651,13 +1651,13 @@
         <v>128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7919463087248322</v>
+        <v>0.8073170731707318</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8232558139534883</v>
+        <v>0.7697674418604651</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6769513866672777</v>
+        <v>0.6821128038510884</v>
       </c>
     </row>
     <row r="22">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1708,13 +1708,13 @@
         <v>128</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7905405405405406</v>
+        <v>0.8304239401496259</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8162790697674419</v>
+        <v>0.7744186046511627</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6778592777154351</v>
+        <v>0.6690386003736921</v>
       </c>
     </row>
     <row r="23">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1765,13 +1765,13 @@
         <v>128</v>
       </c>
       <c r="O23" t="n">
-        <v>0.8119047619047619</v>
+        <v>0.8186274509803921</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7930232558139535</v>
+        <v>0.7767441860465116</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6699212849058629</v>
+        <v>0.6727217858206231</v>
       </c>
     </row>
     <row r="24">
@@ -1785,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>58.82352941176471</v>
+        <v>58.85558583106268</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1822,13 +1822,13 @@
         <v>128</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8246913580246914</v>
+        <v>0.8305882352941176</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7767441860465116</v>
+        <v>0.8171296296296297</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6734393826913899</v>
+        <v>0.6626212892480378</v>
       </c>
     </row>
     <row r="25">
@@ -1842,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>58.82352941176471</v>
+        <v>58.85558583106268</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>128</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.8188405797101449</v>
       </c>
       <c r="P25" t="n">
-        <v>0.7744186046511627</v>
+        <v>0.7847222222222222</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.6804565315207444</v>
+        <v>0.6737249631647843</v>
       </c>
     </row>
     <row r="26">
@@ -1899,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>58.87978142076503</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1936,13 +1936,13 @@
         <v>128</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8026905829596412</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8306264501160093</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.6722974233288582</v>
+        <v>0.6624728469776879</v>
       </c>
     </row>
     <row r="27">
@@ -1956,7 +1956,7 @@
         <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>58.87978142076503</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1993,13 +1993,13 @@
         <v>128</v>
       </c>
       <c r="O27" t="n">
+        <v>0.8398058252427184</v>
+      </c>
+      <c r="P27" t="n">
         <v>0.8046511627906977</v>
       </c>
-      <c r="P27" t="n">
-        <v>0.802784222737819</v>
-      </c>
       <c r="Q27" t="n">
-        <v>0.6781313689680047</v>
+        <v>0.6598591279396443</v>
       </c>
     </row>
     <row r="28">
@@ -2013,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>58.85558583106268</v>
+        <v>58.9041095890411</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2050,13 +2050,13 @@
         <v>128</v>
       </c>
       <c r="O28" t="n">
-        <v>0.817351598173516</v>
+        <v>0.7866666666666666</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8287037037037037</v>
+        <v>0.8232558139534883</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.6650041036449921</v>
+        <v>0.6764169947741783</v>
       </c>
     </row>
     <row r="29">
@@ -2070,7 +2070,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>58.85558583106268</v>
+        <v>58.9041095890411</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2107,13 +2107,13 @@
         <v>128</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8291457286432161</v>
+        <v>0.7708779443254818</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.6733674665237968</v>
+        <v>0.6834269956366656</v>
       </c>
     </row>
     <row r="30">
@@ -2127,7 +2127,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>58.9041095890411</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2164,13 +2164,13 @@
         <v>128</v>
       </c>
       <c r="O30" t="n">
-        <v>0.811816192560175</v>
+        <v>0.8285714285714286</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8627906976744186</v>
+        <v>0.8074245939675174</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.6616375126250803</v>
+        <v>0.6656364954885889</v>
       </c>
     </row>
     <row r="31">
@@ -2184,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>58.9041095890411</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2221,13 +2221,13 @@
         <v>128</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8145539906103286</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8162790697674419</v>
+        <v>0.8051044083526682</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.6661702840295557</v>
+        <v>0.6711623681698992</v>
       </c>
     </row>
     <row r="32">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2278,13 +2278,13 @@
         <v>128</v>
       </c>
       <c r="O32" t="n">
-        <v>0.8188235294117647</v>
+        <v>0.8290993071593533</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8074245939675174</v>
+        <v>0.8329466357308585</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.6690919076810118</v>
+        <v>0.65920996372817</v>
       </c>
     </row>
     <row r="33">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2335,13 +2335,13 @@
         <v>128</v>
       </c>
       <c r="O33" t="n">
-        <v>0.8329466357308585</v>
+        <v>0.8286384976525821</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8329466357308585</v>
+        <v>0.8190255220417634</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.659423711521378</v>
+        <v>0.6628396498049544</v>
       </c>
     </row>
     <row r="34">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2392,13 +2392,13 @@
         <v>128</v>
       </c>
       <c r="O34" t="n">
-        <v>0.8047058823529412</v>
+        <v>0.773542600896861</v>
       </c>
       <c r="P34" t="n">
-        <v>0.7935034802784223</v>
+        <v>0.8004640371229699</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.677102348192142</v>
+        <v>0.6848602956110011</v>
       </c>
     </row>
     <row r="35">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2449,13 +2449,13 @@
         <v>128</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8078703703703703</v>
+        <v>0.7972027972027972</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8097447795823666</v>
+        <v>0.7935034802784223</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6730252865885125</v>
+        <v>0.6816641131385428</v>
       </c>
     </row>
     <row r="36">
@@ -2469,7 +2469,7 @@
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>58.7431693989071</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2506,13 +2506,13 @@
         <v>128</v>
       </c>
       <c r="O36" t="n">
-        <v>0.8066825775656324</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="P36" t="n">
-        <v>0.786046511627907</v>
+        <v>0.8352668213457076</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.6758417669541198</v>
+        <v>0.6755252079885514</v>
       </c>
     </row>
     <row r="37">
@@ -2526,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>58.7431693989071</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2563,13 +2563,13 @@
         <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8041958041958042</v>
+        <v>0.8090909090909091</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8023255813953488</v>
+        <v>0.8259860788863109</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.6753266476542572</v>
+        <v>0.6688904472387553</v>
       </c>
     </row>
     <row r="38">
@@ -2583,7 +2583,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>58.87978142076503</v>
+        <v>58.76712328767123</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2620,13 +2620,13 @@
         <v>128</v>
       </c>
       <c r="O38" t="n">
-        <v>0.778969957081545</v>
+        <v>0.7917570498915402</v>
       </c>
       <c r="P38" t="n">
-        <v>0.8422273781902552</v>
+        <v>0.8508158508158508</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.6776408735520202</v>
+        <v>0.6706367949916892</v>
       </c>
     </row>
     <row r="39">
@@ -2640,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>58.87978142076503</v>
+        <v>58.76712328767123</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2677,13 +2677,13 @@
         <v>128</v>
       </c>
       <c r="O39" t="n">
-        <v>0.7986425339366516</v>
+        <v>0.8101851851851852</v>
       </c>
       <c r="P39" t="n">
-        <v>0.8190255220417634</v>
+        <v>0.8158508158508159</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.6757595203613322</v>
+        <v>0.6662266264223072</v>
       </c>
     </row>
     <row r="40">
@@ -2697,7 +2697,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>58.9041095890411</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2734,13 +2734,13 @@
         <v>128</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8177458033573142</v>
+        <v>0.8242280285035629</v>
       </c>
       <c r="P40" t="n">
-        <v>0.7930232558139535</v>
+        <v>0.8051044083526682</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.6706185293524233</v>
+        <v>0.6654660249016976</v>
       </c>
     </row>
     <row r="41">
@@ -2754,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>58.9041095890411</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2791,13 +2791,13 @@
         <v>128</v>
       </c>
       <c r="O41" t="n">
-        <v>0.8086560364464692</v>
+        <v>0.8353221957040573</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8255813953488372</v>
+        <v>0.8120649651972158</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.6690873799258715</v>
+        <v>0.6605865105253751</v>
       </c>
     </row>
     <row r="42">
@@ -2811,7 +2811,7 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>58.82352941176471</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2848,13 +2848,13 @@
         <v>128</v>
       </c>
       <c r="O42" t="n">
-        <v>0.8179723502304147</v>
+        <v>0.8237986270022883</v>
       </c>
       <c r="P42" t="n">
-        <v>0.8255813953488372</v>
+        <v>0.8352668213457076</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.6636946001555134</v>
+        <v>0.6612575190966247</v>
       </c>
     </row>
     <row r="43">
@@ -2868,7 +2868,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>58.82352941176471</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2905,13 +2905,13 @@
         <v>128</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8134831460674158</v>
+        <v>0.8099547511312217</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8418604651162791</v>
+        <v>0.8306264501160093</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.6654313596426706</v>
+        <v>0.6679209959311564</v>
       </c>
     </row>
     <row r="44">
@@ -2925,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>58.79945429740792</v>
+        <v>58.96032831737345</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2962,13 +2962,13 @@
         <v>128</v>
       </c>
       <c r="O44" t="n">
-        <v>0.8229665071770335</v>
+        <v>0.8090909090909091</v>
       </c>
       <c r="P44" t="n">
-        <v>0.7981438515081206</v>
+        <v>0.8259860788863109</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.6684755782963959</v>
+        <v>0.6692445168090747</v>
       </c>
     </row>
     <row r="45">
@@ -2982,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>58.79945429740792</v>
+        <v>58.96032831737345</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3019,13 +3019,13 @@
         <v>128</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8439897698209718</v>
+        <v>0.8037825059101655</v>
       </c>
       <c r="P45" t="n">
-        <v>0.765661252900232</v>
+        <v>0.7888631090487239</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.6675072496129253</v>
+        <v>0.6773224730661238</v>
       </c>
     </row>
     <row r="46">
@@ -3039,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>58.87978142076503</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3076,13 +3076,13 @@
         <v>128</v>
       </c>
       <c r="O46" t="n">
-        <v>0.802660753880266</v>
+        <v>0.7995495495495496</v>
       </c>
       <c r="P46" t="n">
-        <v>0.839907192575406</v>
+        <v>0.8255813953488372</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.6684709657085398</v>
+        <v>0.6732045468325165</v>
       </c>
     </row>
     <row r="47">
@@ -3096,7 +3096,7 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>58.87978142076503</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3133,13 +3133,13 @@
         <v>128</v>
       </c>
       <c r="O47" t="n">
-        <v>0.8127962085308057</v>
+        <v>0.7883720930232558</v>
       </c>
       <c r="P47" t="n">
-        <v>0.7958236658932715</v>
+        <v>0.7883720930232558</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.6721025610882077</v>
+        <v>0.685492217214587</v>
       </c>
     </row>
     <row r="48">
@@ -3153,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>58.87978142076503</v>
+        <v>58.79945429740792</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3190,13 +3190,13 @@
         <v>128</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8236714975845411</v>
+        <v>0.8313817330210773</v>
       </c>
       <c r="P48" t="n">
-        <v>0.7911832946635731</v>
+        <v>0.8236658932714617</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.6694341917506984</v>
+        <v>0.6587908987621656</v>
       </c>
     </row>
     <row r="49">
@@ -3210,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>58.87978142076503</v>
+        <v>58.79945429740792</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>128</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8170731707317073</v>
+        <v>0.8270142180094787</v>
       </c>
       <c r="P49" t="n">
-        <v>0.777262180974478</v>
+        <v>0.8097447795823666</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.6762846946064892</v>
+        <v>0.6650431220398105</v>
       </c>
     </row>
     <row r="50">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>58.9041095890411</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3304,13 +3304,13 @@
         <v>128</v>
       </c>
       <c r="O50" t="n">
-        <v>0.8049886621315193</v>
+        <v>0.8009153318077803</v>
       </c>
       <c r="P50" t="n">
-        <v>0.8255813953488372</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.6714232482322274</v>
+        <v>0.6731759398645644</v>
       </c>
     </row>
     <row r="51">
@@ -3324,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>58.9041095890411</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3361,13 +3361,13 @@
         <v>128</v>
       </c>
       <c r="O51" t="n">
-        <v>0.7902869757174393</v>
+        <v>0.7986270022883295</v>
       </c>
       <c r="P51" t="n">
-        <v>0.8325581395348837</v>
+        <v>0.8116279069767441</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.6760225727133555</v>
+        <v>0.6745895577846898</v>
       </c>
     </row>
     <row r="52">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3418,13 +3418,13 @@
         <v>128</v>
       </c>
       <c r="O52" t="n">
-        <v>0.7737556561085973</v>
+        <v>0.7761194029850746</v>
       </c>
       <c r="P52" t="n">
-        <v>0.7935034802784223</v>
+        <v>0.8445475638051044</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.6896747827204643</v>
+        <v>0.6795210187789688</v>
       </c>
     </row>
     <row r="53">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3475,13 +3475,13 @@
         <v>128</v>
       </c>
       <c r="O53" t="n">
-        <v>0.7742663656884876</v>
+        <v>0.8032036613272311</v>
       </c>
       <c r="P53" t="n">
-        <v>0.7958236658932715</v>
+        <v>0.814385150812065</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.6906422307514071</v>
+        <v>0.6750991002924608</v>
       </c>
     </row>
     <row r="54">
@@ -3495,7 +3495,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>58.9041095890411</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3532,13 +3532,13 @@
         <v>128</v>
       </c>
       <c r="O54" t="n">
-        <v>0.8285024154589372</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="P54" t="n">
-        <v>0.7976744186046512</v>
+        <v>0.8074245939675174</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.6645138433534805</v>
+        <v>0.672764823084972</v>
       </c>
     </row>
     <row r="55">
@@ -3552,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>58.9041095890411</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3589,13 +3589,13 @@
         <v>128</v>
       </c>
       <c r="O55" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.805045871559633</v>
       </c>
       <c r="P55" t="n">
-        <v>0.7813953488372093</v>
+        <v>0.814385150812065</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.6621693144105885</v>
+        <v>0.6734676452282348</v>
       </c>
     </row>
     <row r="56">
@@ -3609,7 +3609,7 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>58.77551020408164</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3646,13 +3646,13 @@
         <v>128</v>
       </c>
       <c r="O56" t="n">
-        <v>0.7972972972972973</v>
+        <v>0.8108747044917257</v>
       </c>
       <c r="P56" t="n">
-        <v>0.8194444444444444</v>
+        <v>0.7958236658932715</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.6740829539947769</v>
+        <v>0.6752230443589674</v>
       </c>
     </row>
     <row r="57">
@@ -3666,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>58.77551020408164</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3703,13 +3703,13 @@
         <v>128</v>
       </c>
       <c r="O57" t="n">
-        <v>0.8004640371229699</v>
+        <v>0.7939262472885033</v>
       </c>
       <c r="P57" t="n">
-        <v>0.7986111111111112</v>
+        <v>0.8491879350348028</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.6751301331584957</v>
+        <v>0.6713814709355922</v>
       </c>
     </row>
     <row r="58">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3760,13 +3760,13 @@
         <v>128</v>
       </c>
       <c r="O58" t="n">
-        <v>0.7934065934065934</v>
+        <v>0.8249400479616307</v>
       </c>
       <c r="P58" t="n">
-        <v>0.8395348837209302</v>
+        <v>0.8</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.6729337279110739</v>
+        <v>0.6693215112163596</v>
       </c>
     </row>
     <row r="59">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3817,13 +3817,13 @@
         <v>128</v>
       </c>
       <c r="O59" t="n">
-        <v>0.8027522935779816</v>
+        <v>0.8164251207729468</v>
       </c>
       <c r="P59" t="n">
-        <v>0.813953488372093</v>
+        <v>0.786046511627907</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.6717761281418474</v>
+        <v>0.6763162586786976</v>
       </c>
     </row>
     <row r="60">
@@ -3837,7 +3837,7 @@
         <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>58.9041095890411</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3874,13 +3874,13 @@
         <v>128</v>
       </c>
       <c r="O60" t="n">
-        <v>0.8197115384615384</v>
+        <v>0.8471177944862155</v>
       </c>
       <c r="P60" t="n">
-        <v>0.7930232558139535</v>
+        <v>0.786046511627907</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.6685057008103149</v>
+        <v>0.6616058513501764</v>
       </c>
     </row>
     <row r="61">
@@ -3894,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>58.9041095890411</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3931,13 +3931,13 @@
         <v>128</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8418367346938775</v>
+        <v>0.8592964824120602</v>
       </c>
       <c r="P61" t="n">
-        <v>0.7674418604651163</v>
+        <v>0.7953488372093023</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.6687701324894003</v>
+        <v>0.656561112110331</v>
       </c>
     </row>
     <row r="62">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3988,13 +3988,13 @@
         <v>128</v>
       </c>
       <c r="O62" t="n">
-        <v>0.8220720720720721</v>
+        <v>0.8177676537585421</v>
       </c>
       <c r="P62" t="n">
-        <v>0.8488372093023255</v>
+        <v>0.8348837209302326</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.655550341273463</v>
+        <v>0.6627101740824051</v>
       </c>
     </row>
     <row r="63">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4045,13 +4045,13 @@
         <v>128</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8208616780045351</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="P63" t="n">
-        <v>0.8418604651162791</v>
+        <v>0.8093023255813954</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.6608204725829097</v>
+        <v>0.6714960093700445</v>
       </c>
     </row>
     <row r="64">
@@ -4065,7 +4065,7 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>58.82352941176471</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4102,13 +4102,13 @@
         <v>128</v>
       </c>
       <c r="O64" t="n">
-        <v>0.7780320366132724</v>
+        <v>0.8120649651972158</v>
       </c>
       <c r="P64" t="n">
-        <v>0.7906976744186046</v>
+        <v>0.8120649651972158</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.6893721447923767</v>
+        <v>0.6714335077447318</v>
       </c>
     </row>
     <row r="65">
@@ -4122,7 +4122,7 @@
         <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>58.82352941176471</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4159,13 +4159,13 @@
         <v>128</v>
       </c>
       <c r="O65" t="n">
-        <v>0.8052256532066508</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="P65" t="n">
-        <v>0.7883720930232558</v>
+        <v>0.7958236658932715</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.6786891559569519</v>
+        <v>0.6645833817336078</v>
       </c>
     </row>
     <row r="66">
@@ -4179,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>58.87978142076503</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4216,13 +4216,13 @@
         <v>128</v>
       </c>
       <c r="O66" t="n">
-        <v>0.8083140877598153</v>
+        <v>0.8122171945701357</v>
       </c>
       <c r="P66" t="n">
-        <v>0.8120649651972158</v>
+        <v>0.8348837209302326</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.6699479743431175</v>
+        <v>0.6624452720425523</v>
       </c>
     </row>
     <row r="67">
@@ -4236,7 +4236,7 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>58.87978142076503</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4273,13 +4273,13 @@
         <v>128</v>
       </c>
       <c r="O67" t="n">
-        <v>0.7874186550976139</v>
+        <v>0.8270142180094787</v>
       </c>
       <c r="P67" t="n">
-        <v>0.8422273781902552</v>
+        <v>0.8116279069767441</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.6760438924930134</v>
+        <v>0.6633870054530706</v>
       </c>
     </row>
     <row r="68">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4330,13 +4330,13 @@
         <v>128</v>
       </c>
       <c r="O68" t="n">
-        <v>0.8036951501154734</v>
+        <v>0.8305084745762712</v>
       </c>
       <c r="P68" t="n">
-        <v>0.8074245939675174</v>
+        <v>0.7958236658932715</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.6745702998885692</v>
+        <v>0.6690529119121572</v>
       </c>
     </row>
     <row r="69">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4387,13 +4387,13 @@
         <v>128</v>
       </c>
       <c r="O69" t="n">
-        <v>0.7855579868708972</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="P69" t="n">
-        <v>0.8329466357308585</v>
+        <v>0.7540603248259861</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.676937241046155</v>
+        <v>0.6736538700067281</v>
       </c>
     </row>
     <row r="70">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4444,13 +4444,13 @@
         <v>128</v>
       </c>
       <c r="O70" t="n">
-        <v>0.7959641255605381</v>
+        <v>0.8394160583941606</v>
       </c>
       <c r="P70" t="n">
-        <v>0.8236658932714617</v>
+        <v>0.8004640371229699</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.6743539662960448</v>
+        <v>0.661886092743587</v>
       </c>
     </row>
     <row r="71">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4501,13 +4501,13 @@
         <v>128</v>
       </c>
       <c r="O71" t="n">
-        <v>0.8231132075471698</v>
+        <v>0.8080357142857143</v>
       </c>
       <c r="P71" t="n">
-        <v>0.8097447795823666</v>
+        <v>0.839907192575406</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.6664949678332428</v>
+        <v>0.6670793119024058</v>
       </c>
     </row>
     <row r="72">
@@ -4521,7 +4521,7 @@
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>58.82352941176471</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4558,13 +4558,13 @@
         <v>128</v>
       </c>
       <c r="O72" t="n">
-        <v>0.819047619047619</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="P72" t="n">
-        <v>0.8</v>
+        <v>0.814385150812065</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.6723828071119358</v>
+        <v>0.6650036553867528</v>
       </c>
     </row>
     <row r="73">
@@ -4578,7 +4578,7 @@
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>58.82352941176471</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4615,13 +4615,13 @@
         <v>128</v>
       </c>
       <c r="O73" t="n">
-        <v>0.7847222222222222</v>
+        <v>0.8304239401496259</v>
       </c>
       <c r="P73" t="n">
-        <v>0.7883720930232558</v>
+        <v>0.7726218097447796</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.6834947974019762</v>
+        <v>0.6711260552614764</v>
       </c>
     </row>
     <row r="74">
@@ -4635,7 +4635,7 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>58.82352941176471</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4672,13 +4672,13 @@
         <v>128</v>
       </c>
       <c r="O74" t="n">
-        <v>0.8236775818639799</v>
+        <v>0.8246913580246914</v>
       </c>
       <c r="P74" t="n">
-        <v>0.7604651162790698</v>
+        <v>0.7749419953596288</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.6741506445098021</v>
+        <v>0.6723895024080746</v>
       </c>
     </row>
     <row r="75">
@@ -4692,7 +4692,7 @@
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>58.82352941176471</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4729,13 +4729,13 @@
         <v>128</v>
       </c>
       <c r="O75" t="n">
-        <v>0.8188775510204082</v>
+        <v>0.8163771712158809</v>
       </c>
       <c r="P75" t="n">
-        <v>0.7465116279069768</v>
+        <v>0.7633410672853829</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.6810578027926131</v>
+        <v>0.677026504701604</v>
       </c>
     </row>
     <row r="76">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4786,13 +4786,13 @@
         <v>128</v>
       </c>
       <c r="O76" t="n">
-        <v>0.8146341463414634</v>
+        <v>0.8362282878411911</v>
       </c>
       <c r="P76" t="n">
-        <v>0.7749419953596288</v>
+        <v>0.7819025522041764</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.6776526430265499</v>
+        <v>0.6690945625305176</v>
       </c>
     </row>
     <row r="77">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4843,13 +4843,13 @@
         <v>128</v>
       </c>
       <c r="O77" t="n">
-        <v>0.8253588516746412</v>
+        <v>0.7981859410430839</v>
       </c>
       <c r="P77" t="n">
-        <v>0.8004640371229699</v>
+        <v>0.8167053364269141</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.6703318839516145</v>
+        <v>0.6753546139581608</v>
       </c>
     </row>
     <row r="78">
@@ -4863,7 +4863,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>58.87978142076503</v>
+        <v>58.9041095890411</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4900,13 +4900,13 @@
         <v>128</v>
       </c>
       <c r="O78" t="n">
-        <v>0.7824175824175824</v>
+        <v>0.796137339055794</v>
       </c>
       <c r="P78" t="n">
-        <v>0.8259860788863109</v>
+        <v>0.8627906976744186</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.6821583603900638</v>
+        <v>0.6649281307442547</v>
       </c>
     </row>
     <row r="79">
@@ -4920,7 +4920,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>58.87978142076503</v>
+        <v>58.9041095890411</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
@@ -4942,7 +4942,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4957,13 +4957,13 @@
         <v>128</v>
       </c>
       <c r="O79" t="n">
-        <v>0.8071428571428572</v>
+        <v>0.8120649651972158</v>
       </c>
       <c r="P79" t="n">
-        <v>0.7865429234338747</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.677550961085356</v>
+        <v>0.6682321084688787</v>
       </c>
     </row>
     <row r="80">
@@ -4977,7 +4977,7 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>58.87978142076503</v>
+        <v>58.7431693989071</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5014,13 +5014,13 @@
         <v>128</v>
       </c>
       <c r="O80" t="n">
-        <v>0.8114942528735632</v>
+        <v>0.8277511961722488</v>
       </c>
       <c r="P80" t="n">
-        <v>0.8190255220417634</v>
+        <v>0.8046511627906977</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.6658243510892482</v>
+        <v>0.666755669429654</v>
       </c>
     </row>
     <row r="81">
@@ -5034,7 +5034,7 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>58.87978142076503</v>
+        <v>58.7431693989071</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5071,13 +5071,13 @@
         <v>128</v>
       </c>
       <c r="O81" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8159090909090909</v>
       </c>
       <c r="P81" t="n">
-        <v>0.7888631090487239</v>
+        <v>0.8348837209302326</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.6659678302176012</v>
+        <v>0.664454821028996</v>
       </c>
     </row>
     <row r="82">
@@ -5091,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>58.87978142076503</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5128,13 +5128,13 @@
         <v>128</v>
       </c>
       <c r="O82" t="n">
-        <v>0.8302752293577982</v>
+        <v>0.8116591928251121</v>
       </c>
       <c r="P82" t="n">
-        <v>0.839907192575406</v>
+        <v>0.8418604651162791</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.6574024779549061</v>
+        <v>0.6659166981681427</v>
       </c>
     </row>
     <row r="83">
@@ -5148,7 +5148,7 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>58.87978142076503</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5185,13 +5185,13 @@
         <v>128</v>
       </c>
       <c r="O83" t="n">
-        <v>0.8349753694581281</v>
+        <v>0.8067415730337079</v>
       </c>
       <c r="P83" t="n">
-        <v>0.7865429234338747</v>
+        <v>0.8348837209302326</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.6680818613761109</v>
+        <v>0.6665920984565641</v>
       </c>
     </row>
     <row r="84">
@@ -5205,7 +5205,7 @@
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>58.9041095890411</v>
+        <v>58.79945429740792</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5242,13 +5242,13 @@
         <v>128</v>
       </c>
       <c r="O84" t="n">
-        <v>0.837037037037037</v>
+        <v>0.8154613466334164</v>
       </c>
       <c r="P84" t="n">
-        <v>0.7883720930232558</v>
+        <v>0.7587006960556845</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.6664715406012862</v>
+        <v>0.6788987130292604</v>
       </c>
     </row>
     <row r="85">
@@ -5262,7 +5262,7 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>58.9041095890411</v>
+        <v>58.79945429740792</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5299,13 +5299,13 @@
         <v>128</v>
       </c>
       <c r="O85" t="n">
-        <v>0.8498727735368957</v>
+        <v>0.8052884615384616</v>
       </c>
       <c r="P85" t="n">
-        <v>0.7767441860465116</v>
+        <v>0.777262180974478</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.6644132975029619</v>
+        <v>0.6796708171234287</v>
       </c>
     </row>
     <row r="86">
@@ -5319,7 +5319,7 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>58.7912087912088</v>
+        <v>58.9041095890411</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5356,13 +5356,13 @@
         <v>128</v>
       </c>
       <c r="O86" t="n">
-        <v>0.812206572769953</v>
+        <v>0.8272506082725061</v>
       </c>
       <c r="P86" t="n">
-        <v>0.8084112149532711</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.6713672555409945</v>
+        <v>0.6714870470843903</v>
       </c>
     </row>
     <row r="87">
@@ -5376,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>58.7912087912088</v>
+        <v>58.9041095890411</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5413,13 +5413,13 @@
         <v>128</v>
       </c>
       <c r="O87" t="n">
-        <v>0.7967289719626168</v>
+        <v>0.8087557603686636</v>
       </c>
       <c r="P87" t="n">
-        <v>0.7967289719626168</v>
+        <v>0.8162790697674419</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.67948327090714</v>
+        <v>0.6705799174635377</v>
       </c>
     </row>
     <row r="88">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5470,13 +5470,13 @@
         <v>128</v>
       </c>
       <c r="O88" t="n">
-        <v>0.8080357142857143</v>
+        <v>0.8009367681498829</v>
       </c>
       <c r="P88" t="n">
-        <v>0.8418604651162791</v>
+        <v>0.7953488372093023</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.666964766750597</v>
+        <v>0.6774527752236145</v>
       </c>
     </row>
     <row r="89">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5527,13 +5527,13 @@
         <v>128</v>
       </c>
       <c r="O89" t="n">
-        <v>0.7955056179775281</v>
+        <v>0.8277511961722488</v>
       </c>
       <c r="P89" t="n">
-        <v>0.8232558139534883</v>
+        <v>0.8046511627906977</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.6748583770778082</v>
+        <v>0.66554897468384</v>
       </c>
     </row>
     <row r="90">
@@ -5547,7 +5547,7 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>58.80758807588076</v>
+        <v>58.85558583106268</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5584,13 +5584,13 @@
         <v>128</v>
       </c>
       <c r="O90" t="n">
-        <v>0.7927927927927928</v>
+        <v>0.8337468982630273</v>
       </c>
       <c r="P90" t="n">
-        <v>0.8110599078341014</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.6790317594197385</v>
+        <v>0.6692428415087978</v>
       </c>
     </row>
     <row r="91">
@@ -5604,7 +5604,7 @@
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>58.80758807588076</v>
+        <v>58.85558583106268</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
@@ -5626,7 +5626,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5641,13 +5641,13 @@
         <v>128</v>
       </c>
       <c r="O91" t="n">
-        <v>0.7909090909090909</v>
+        <v>0.8305489260143198</v>
       </c>
       <c r="P91" t="n">
-        <v>0.8018433179723502</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.6816080382199792</v>
+        <v>0.6642465289347178</v>
       </c>
     </row>
     <row r="92">
@@ -5661,7 +5661,7 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>58.7516960651289</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5698,13 +5698,13 @@
         <v>128</v>
       </c>
       <c r="O92" t="n">
-        <v>0.7964989059080962</v>
+        <v>0.8140589569160998</v>
       </c>
       <c r="P92" t="n">
-        <v>0.8406466512702079</v>
+        <v>0.8348837209302326</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.6730887229115863</v>
+        <v>0.6653837324330321</v>
       </c>
     </row>
     <row r="93">
@@ -5718,7 +5718,7 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>58.7516960651289</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5755,13 +5755,13 @@
         <v>128</v>
       </c>
       <c r="O93" t="n">
-        <v>0.7962085308056872</v>
+        <v>0.7965367965367965</v>
       </c>
       <c r="P93" t="n">
-        <v>0.7759815242494227</v>
+        <v>0.8558139534883721</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.6808851266651335</v>
+        <v>0.6677439929522503</v>
       </c>
     </row>
     <row r="94">
@@ -5775,7 +5775,7 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>58.9041095890411</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5812,13 +5812,13 @@
         <v>128</v>
       </c>
       <c r="O94" t="n">
-        <v>0.812933025404157</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="P94" t="n">
-        <v>0.8186046511627907</v>
+        <v>0.7726218097447796</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.6675068855285644</v>
+        <v>0.6755501771233773</v>
       </c>
     </row>
     <row r="95">
@@ -5832,7 +5832,7 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>58.9041095890411</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5869,13 +5869,13 @@
         <v>128</v>
       </c>
       <c r="O95" t="n">
-        <v>0.8030973451327433</v>
+        <v>0.8046511627906977</v>
       </c>
       <c r="P95" t="n">
-        <v>0.8441860465116279</v>
+        <v>0.802784222737819</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.6703395828808824</v>
+        <v>0.6774658860404634</v>
       </c>
     </row>
     <row r="96">
@@ -5889,7 +5889,7 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>58.82352941176471</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5926,13 +5926,13 @@
         <v>128</v>
       </c>
       <c r="O96" t="n">
-        <v>0.8183908045977012</v>
+        <v>0.796875</v>
       </c>
       <c r="P96" t="n">
-        <v>0.827906976744186</v>
+        <v>0.8283062645011601</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.6619263152743495</v>
+        <v>0.6743054331326094</v>
       </c>
     </row>
     <row r="97">
@@ -5946,7 +5946,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>58.82352941176471</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5983,13 +5983,13 @@
         <v>128</v>
       </c>
       <c r="O97" t="n">
-        <v>0.819047619047619</v>
+        <v>0.8106796116504854</v>
       </c>
       <c r="P97" t="n">
-        <v>0.8</v>
+        <v>0.7749419953596288</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.6702242989383547</v>
+        <v>0.6786391878388619</v>
       </c>
     </row>
     <row r="98">
@@ -6003,7 +6003,7 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>58.9041095890411</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6040,13 +6040,13 @@
         <v>128</v>
       </c>
       <c r="O98" t="n">
-        <v>0.8009259259259259</v>
+        <v>0.8201438848920863</v>
       </c>
       <c r="P98" t="n">
-        <v>0.8046511627906977</v>
+        <v>0.7935034802784223</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.6776651532682654</v>
+        <v>0.6705692817604607</v>
       </c>
     </row>
     <row r="99">
@@ -6060,7 +6060,7 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>58.9041095890411</v>
+        <v>58.87978142076503</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6097,13 +6097,13 @@
         <v>128</v>
       </c>
       <c r="O99" t="n">
-        <v>0.7960088691796009</v>
+        <v>0.8231132075471698</v>
       </c>
       <c r="P99" t="n">
-        <v>0.8348837209302326</v>
+        <v>0.8097447795823666</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.6725565975659514</v>
+        <v>0.6672432350982083</v>
       </c>
     </row>
     <row r="100">
@@ -6117,7 +6117,7 @@
         <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>58.9041095890411</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6154,13 +6154,13 @@
         <v>128</v>
       </c>
       <c r="O100" t="n">
-        <v>0.8231292517006803</v>
+        <v>0.8113636363636364</v>
       </c>
       <c r="P100" t="n">
-        <v>0.8441860465116279</v>
+        <v>0.8302325581395349</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.6580958724021911</v>
+        <v>0.6678290342664914</v>
       </c>
     </row>
     <row r="101">
@@ -6174,7 +6174,7 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>58.9041095890411</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6211,13 +6211,13 @@
         <v>128</v>
       </c>
       <c r="O101" t="n">
-        <v>0.8306636155606407</v>
+        <v>0.8427518427518428</v>
       </c>
       <c r="P101" t="n">
-        <v>0.8441860465116279</v>
+        <v>0.7976744186046512</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.6544842703701699</v>
+        <v>0.6635343276687914</v>
       </c>
     </row>
   </sheetData>
